--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200618.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200618.xlsx
@@ -10299,9 +10299,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10383,14 +10383,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10404,9 +10405,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10419,29 +10435,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10462,9 +10456,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10486,6 +10486,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -10511,17 +10519,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -10546,7 +10546,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10558,13 +10654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10582,25 +10678,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10612,121 +10720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10737,6 +10737,74 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -10755,26 +10823,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10789,64 +10837,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10855,16 +10855,16 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10873,115 +10873,115 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11382,8 +11382,8 @@
   <sheetPr/>
   <dimension ref="A1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9083333333333" defaultRowHeight="16.5"/>
@@ -12726,7 +12726,7 @@
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="17">
@@ -12979,20 +12979,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H10 H2:H4 H6:H9 H11:H13 H15:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I10 I2:I4 I6:I9 I11:I13 M14:M16 I17:Z1048576 I14:L16 N14:X16 J2:X13">
-      <formula1>0</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
+      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I10 I2:I4 I6:I9 I11:I13 M14:M16 I17:Z1048576 I14:L16 N14:X16 J2:X13">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G1048576">
       <formula1>INDIRECT($F16)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576">
       <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576">
-      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576">
       <formula1>"未核查,已核查"</formula1>
